--- a/Excel/FLEXFIT/21.03/21.03.2022 FLEXFIT — загрузка.xlsx
+++ b/Excel/FLEXFIT/21.03/21.03.2022 FLEXFIT — загрузка.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{259B2CD5-4D86-4A76-AC14-8AB70107FEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\FLEXFIT\21.03\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C38CBB5-5A17-4827-9AB5-BE56B829C723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DE735F8-83A7-45D4-AC71-2649BBE1992D}"/>
   </bookViews>
@@ -14,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Загрузка!$G$1:$W$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Загрузка!$G$1:$W$82</definedName>
     <definedName name="АртикулХарактеристики">[1]Settings!$C$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -61,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="151">
   <si>
     <t>Артикул</t>
   </si>
@@ -252,9 +257,6 @@
     <t>110C</t>
   </si>
   <si>
-    <t>100% полиэстер</t>
-  </si>
-  <si>
     <t>Бейсболка FLEXFIT арт. 110C (синий)</t>
   </si>
   <si>
@@ -264,12 +266,6 @@
     <t>94-022-06-00</t>
   </si>
   <si>
-    <t>94-021-12</t>
-  </si>
-  <si>
-    <t>6245PT</t>
-  </si>
-  <si>
     <t>maroon</t>
   </si>
   <si>
@@ -282,33 +278,6 @@
     <t>хлопковые</t>
   </si>
   <si>
-    <t>Бейсболка FLEXFIT арт. 6245PT (бордовый)</t>
-  </si>
-  <si>
-    <t>Бейсболка FLEXFIT арт. 6245PT (бордовый) {maroon}</t>
-  </si>
-  <si>
-    <t>94-021-12-00</t>
-  </si>
-  <si>
-    <t>94-021-02</t>
-  </si>
-  <si>
-    <t>loden</t>
-  </si>
-  <si>
-    <t>бежевый</t>
-  </si>
-  <si>
-    <t>Бейсболка FLEXFIT арт. 6245PT (бежевый)</t>
-  </si>
-  <si>
-    <t>Бейсболка FLEXFIT арт. 6245PT (бежевый) {loden}</t>
-  </si>
-  <si>
-    <t>94-021-02-00</t>
-  </si>
-  <si>
     <t>94-020-80</t>
   </si>
   <si>
@@ -327,18 +296,6 @@
     <t>94-020-80-00</t>
   </si>
   <si>
-    <t>94-020-18</t>
-  </si>
-  <si>
-    <t>Бейсболка FLEXFIT арт. 6089CC (красный)</t>
-  </si>
-  <si>
-    <t>Бейсболка FLEXFIT арт. 6089CC (красный) {red}</t>
-  </si>
-  <si>
-    <t>94-020-18-00</t>
-  </si>
-  <si>
     <t>94-020-12</t>
   </si>
   <si>
@@ -369,9 +326,6 @@
     <t>94-020-05-00</t>
   </si>
   <si>
-    <t>94-019-34</t>
-  </si>
-  <si>
     <t>6245CM</t>
   </si>
   <si>
@@ -381,69 +335,6 @@
     <t>розовый</t>
   </si>
   <si>
-    <t>Бейсболка FLEXFIT арт. 6245CM (розовый)</t>
-  </si>
-  <si>
-    <t>Бейсболка FLEXFIT арт. 6245CM (розовый) {pink}</t>
-  </si>
-  <si>
-    <t>94-019-34-00</t>
-  </si>
-  <si>
-    <t>94-019-19</t>
-  </si>
-  <si>
-    <t>light blue</t>
-  </si>
-  <si>
-    <t>светло-синий</t>
-  </si>
-  <si>
-    <t>Бейсболка FLEXFIT арт. 6245CM (светло-синий)</t>
-  </si>
-  <si>
-    <t>Бейсболка FLEXFIT арт. 6245CM (светло-синий) {light blue}</t>
-  </si>
-  <si>
-    <t>94-019-19-00</t>
-  </si>
-  <si>
-    <t>94-019-17</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>белый</t>
-  </si>
-  <si>
-    <t>Бейсболка FLEXFIT арт. 6245CM (белый)</t>
-  </si>
-  <si>
-    <t>Бейсболка FLEXFIT арт. 6245CM (белый) {white}</t>
-  </si>
-  <si>
-    <t>94-019-17-00</t>
-  </si>
-  <si>
-    <t>94-019-11</t>
-  </si>
-  <si>
-    <t>spruce</t>
-  </si>
-  <si>
-    <t>зеленый</t>
-  </si>
-  <si>
-    <t>Бейсболка FLEXFIT арт. 6245CM (зеленый)</t>
-  </si>
-  <si>
-    <t>Бейсболка FLEXFIT арт. 6245CM (зеленый) {spruce}</t>
-  </si>
-  <si>
-    <t>94-019-11-00</t>
-  </si>
-  <si>
     <t>94-019-09</t>
   </si>
   <si>
@@ -456,48 +347,12 @@
     <t>94-019-09-00</t>
   </si>
   <si>
-    <t>94-019-07</t>
-  </si>
-  <si>
-    <t>khaki</t>
-  </si>
-  <si>
-    <t>темно-зеленый</t>
-  </si>
-  <si>
-    <t>Бейсболка FLEXFIT арт. 6245CM (темно-зеленый)</t>
-  </si>
-  <si>
-    <t>Бейсболка FLEXFIT арт. 6245CM (темно-зеленый) {khaki}</t>
-  </si>
-  <si>
-    <t>94-019-07-00</t>
-  </si>
-  <si>
-    <t>94-015-86</t>
-  </si>
-  <si>
     <t>Бейсболка с сеточкой</t>
   </si>
   <si>
-    <t>cranberry</t>
-  </si>
-  <si>
-    <t>малиновый</t>
-  </si>
-  <si>
     <t>65% полиэстер - 35% хлопок</t>
   </si>
   <si>
-    <t>Бейсболка FLEXFIT арт. 6606 (малиновый)</t>
-  </si>
-  <si>
-    <t>Бейсболка FLEXFIT арт. 6606 (малиновый) {cranberry}</t>
-  </si>
-  <si>
-    <t>94-015-86-00</t>
-  </si>
-  <si>
     <t>94-015-34</t>
   </si>
   <si>
@@ -661,6 +516,9 @@
   </si>
   <si>
     <t>94-001-01-00</t>
+  </si>
+  <si>
+    <t>98% полиэстер - 2% спандекс</t>
   </si>
 </sst>
 </file>
@@ -1187,11 +1045,11 @@
   <sheetPr codeName="Лист28">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:W91"/>
+  <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AV32" sqref="AV32"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,7 +1456,7 @@
         <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="K6"/>
       <c r="L6" t="s">
@@ -1618,30 +1476,30 @@
         <v>37</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S6" t="s">
         <v>38</v>
       </c>
       <c r="T6" t="s">
+        <v>63</v>
+      </c>
+      <c r="U6" t="s">
         <v>64</v>
-      </c>
-      <c r="U6" t="s">
-        <v>65</v>
       </c>
       <c r="V6" t="s">
         <v>50</v>
       </c>
       <c r="W6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -1659,16 +1517,16 @@
         <v>29</v>
       </c>
       <c r="H7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s">
         <v>69</v>
-      </c>
-      <c r="I7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" t="s">
-        <v>72</v>
       </c>
       <c r="L7" t="s">
         <v>34</v>
@@ -1699,18 +1557,18 @@
         <v>74</v>
       </c>
       <c r="V7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="W7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -1728,16 +1586,16 @@
         <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L8" t="s">
         <v>34</v>
@@ -1756,30 +1614,30 @@
         <v>37</v>
       </c>
       <c r="R8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S8" t="s">
         <v>38</v>
       </c>
       <c r="T8" t="s">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s">
+        <v>78</v>
+      </c>
+      <c r="V8" t="s">
+        <v>67</v>
+      </c>
+      <c r="W8" t="s">
         <v>79</v>
       </c>
-      <c r="U8" t="s">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>80</v>
       </c>
-      <c r="V8" t="s">
-        <v>78</v>
-      </c>
-      <c r="W8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -1797,16 +1655,16 @@
         <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L9" t="s">
         <v>34</v>
@@ -1825,30 +1683,30 @@
         <v>37</v>
       </c>
       <c r="R9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S9" t="s">
         <v>38</v>
       </c>
       <c r="T9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V9" t="s">
         <v>59</v>
       </c>
       <c r="W9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -1866,16 +1724,16 @@
         <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L10" t="s">
         <v>34</v>
@@ -1894,36 +1752,36 @@
         <v>37</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="S10" t="s">
         <v>38</v>
       </c>
       <c r="T10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="W10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" t="s">
-        <v>83</v>
+        <v>95</v>
+      </c>
+      <c r="B11">
+        <v>6606</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
@@ -1935,17 +1793,15 @@
         <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" t="s">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K11"/>
       <c r="L11" t="s">
         <v>34</v>
       </c>
@@ -1954,7 +1810,7 @@
       </c>
       <c r="N11"/>
       <c r="O11">
-        <v>517</v>
+        <v>473</v>
       </c>
       <c r="P11" t="s">
         <v>36</v>
@@ -1963,36 +1819,36 @@
         <v>37</v>
       </c>
       <c r="R11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S11" t="s">
         <v>38</v>
       </c>
       <c r="T11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="U11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="V11" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="W11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
@@ -2004,16 +1860,16 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s">
         <v>34</v>
@@ -2032,36 +1888,36 @@
         <v>37</v>
       </c>
       <c r="R12">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="S12" t="s">
         <v>38</v>
       </c>
       <c r="T12" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="U12" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="V12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="W12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -2073,16 +1929,16 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
         <v>34</v>
@@ -2101,36 +1957,36 @@
         <v>37</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S13" t="s">
         <v>38</v>
       </c>
       <c r="T13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="U13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="V13" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="W13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
@@ -2142,16 +1998,16 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="K14" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="L14" t="s">
         <v>34</v>
@@ -2170,36 +2026,36 @@
         <v>37</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S14" t="s">
         <v>38</v>
       </c>
       <c r="T14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="U14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="V14" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="W14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
         <v>27</v>
@@ -2211,16 +2067,16 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="L15" t="s">
         <v>34</v>
@@ -2239,36 +2095,36 @@
         <v>37</v>
       </c>
       <c r="R15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S15" t="s">
         <v>38</v>
       </c>
       <c r="T15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="U15" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="V15" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="W15" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
@@ -2280,16 +2136,16 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I16" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="L16" t="s">
         <v>34</v>
@@ -2308,36 +2164,36 @@
         <v>37</v>
       </c>
       <c r="R16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S16" t="s">
         <v>38</v>
       </c>
       <c r="T16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="U16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="V16" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="W16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
@@ -2349,16 +2205,16 @@
         <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="K17" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="L17" t="s">
         <v>34</v>
@@ -2377,36 +2233,36 @@
         <v>37</v>
       </c>
       <c r="R17">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="S17" t="s">
         <v>38</v>
       </c>
       <c r="T17" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="U17" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="V17" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="W17" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
         <v>27</v>
@@ -2418,16 +2274,16 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="K18" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="L18" t="s">
         <v>34</v>
@@ -2446,36 +2302,36 @@
         <v>37</v>
       </c>
       <c r="R18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S18" t="s">
         <v>38</v>
       </c>
       <c r="T18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="U18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="V18" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="W18" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19">
-        <v>6606</v>
+        <v>140</v>
+      </c>
+      <c r="B19" t="s">
+        <v>141</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
@@ -2487,15 +2343,17 @@
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s">
-        <v>141</v>
-      </c>
-      <c r="K19"/>
+        <v>142</v>
+      </c>
+      <c r="K19" t="s">
+        <v>33</v>
+      </c>
       <c r="L19" t="s">
         <v>34</v>
       </c>
@@ -2504,7 +2362,7 @@
       </c>
       <c r="N19"/>
       <c r="O19">
-        <v>473</v>
+        <v>560</v>
       </c>
       <c r="P19" t="s">
         <v>36</v>
@@ -2513,36 +2371,36 @@
         <v>37</v>
       </c>
       <c r="R19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S19" t="s">
         <v>38</v>
       </c>
       <c r="T19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="V19" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="W19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20">
-        <v>6606</v>
+        <v>146</v>
+      </c>
+      <c r="B20" t="s">
+        <v>141</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="E20" t="s">
         <v>27</v>
@@ -2554,15 +2412,17 @@
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="I20" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s">
-        <v>141</v>
-      </c>
-      <c r="K20"/>
+        <v>142</v>
+      </c>
+      <c r="K20" t="s">
+        <v>33</v>
+      </c>
       <c r="L20" t="s">
         <v>34</v>
       </c>
@@ -2571,7 +2431,7 @@
       </c>
       <c r="N20"/>
       <c r="O20">
-        <v>473</v>
+        <v>560</v>
       </c>
       <c r="P20" t="s">
         <v>36</v>
@@ -2580,644 +2440,248 @@
         <v>37</v>
       </c>
       <c r="R20">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S20" t="s">
         <v>38</v>
       </c>
       <c r="T20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V20" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="W20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" t="s">
-        <v>152</v>
-      </c>
-      <c r="I21" t="s">
-        <v>153</v>
-      </c>
-      <c r="J21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" t="s">
-        <v>34</v>
-      </c>
-      <c r="M21" t="s">
-        <v>35</v>
-      </c>
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
       <c r="N21"/>
-      <c r="O21">
-        <v>517</v>
-      </c>
-      <c r="P21" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>37</v>
-      </c>
-      <c r="R21">
-        <v>10</v>
-      </c>
-      <c r="S21" t="s">
-        <v>38</v>
-      </c>
-      <c r="T21" t="s">
-        <v>154</v>
-      </c>
-      <c r="U21" t="s">
-        <v>155</v>
-      </c>
-      <c r="V21" t="s">
-        <v>50</v>
-      </c>
-      <c r="W21" t="s">
-        <v>156</v>
-      </c>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" t="s">
-        <v>158</v>
-      </c>
-      <c r="I22" t="s">
-        <v>159</v>
-      </c>
-      <c r="J22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" t="s">
-        <v>35</v>
-      </c>
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
       <c r="N22"/>
-      <c r="O22">
-        <v>517</v>
-      </c>
-      <c r="P22" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>37</v>
-      </c>
-      <c r="R22">
-        <v>8</v>
-      </c>
-      <c r="S22" t="s">
-        <v>38</v>
-      </c>
-      <c r="T22" t="s">
-        <v>160</v>
-      </c>
-      <c r="U22" t="s">
-        <v>161</v>
-      </c>
-      <c r="V22" t="s">
-        <v>59</v>
-      </c>
-      <c r="W22" t="s">
-        <v>162</v>
-      </c>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>163</v>
-      </c>
-      <c r="B23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" t="s">
-        <v>164</v>
-      </c>
-      <c r="I23" t="s">
-        <v>165</v>
-      </c>
-      <c r="J23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" t="s">
-        <v>34</v>
-      </c>
-      <c r="M23" t="s">
-        <v>35</v>
-      </c>
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
       <c r="N23"/>
-      <c r="O23">
-        <v>517</v>
-      </c>
-      <c r="P23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>37</v>
-      </c>
-      <c r="R23">
-        <v>8</v>
-      </c>
-      <c r="S23" t="s">
-        <v>38</v>
-      </c>
-      <c r="T23" t="s">
-        <v>166</v>
-      </c>
-      <c r="U23" t="s">
-        <v>167</v>
-      </c>
-      <c r="V23" t="s">
-        <v>59</v>
-      </c>
-      <c r="W23" t="s">
-        <v>168</v>
-      </c>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" t="s">
-        <v>170</v>
-      </c>
-      <c r="I24" t="s">
-        <v>171</v>
-      </c>
-      <c r="J24" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" t="s">
-        <v>34</v>
-      </c>
-      <c r="M24" t="s">
-        <v>35</v>
-      </c>
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
       <c r="N24"/>
-      <c r="O24">
-        <v>517</v>
-      </c>
-      <c r="P24" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>37</v>
-      </c>
-      <c r="R24">
-        <v>8</v>
-      </c>
-      <c r="S24" t="s">
-        <v>38</v>
-      </c>
-      <c r="T24" t="s">
-        <v>172</v>
-      </c>
-      <c r="U24" t="s">
-        <v>173</v>
-      </c>
-      <c r="V24" t="s">
-        <v>59</v>
-      </c>
-      <c r="W24" t="s">
-        <v>174</v>
-      </c>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" t="s">
-        <v>176</v>
-      </c>
-      <c r="I25" t="s">
-        <v>177</v>
-      </c>
-      <c r="J25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" t="s">
-        <v>33</v>
-      </c>
-      <c r="L25" t="s">
-        <v>34</v>
-      </c>
-      <c r="M25" t="s">
-        <v>35</v>
-      </c>
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
       <c r="N25"/>
-      <c r="O25">
-        <v>517</v>
-      </c>
-      <c r="P25" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>37</v>
-      </c>
-      <c r="R25">
-        <v>6</v>
-      </c>
-      <c r="S25" t="s">
-        <v>38</v>
-      </c>
-      <c r="T25" t="s">
-        <v>178</v>
-      </c>
-      <c r="U25" t="s">
-        <v>179</v>
-      </c>
-      <c r="V25" t="s">
-        <v>59</v>
-      </c>
-      <c r="W25" t="s">
-        <v>180</v>
-      </c>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" t="s">
-        <v>59</v>
-      </c>
-      <c r="J26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" t="s">
-        <v>34</v>
-      </c>
-      <c r="M26" t="s">
-        <v>35</v>
-      </c>
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
       <c r="N26"/>
-      <c r="O26">
-        <v>517</v>
-      </c>
-      <c r="P26" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>37</v>
-      </c>
-      <c r="R26">
-        <v>12</v>
-      </c>
-      <c r="S26" t="s">
-        <v>38</v>
-      </c>
-      <c r="T26" t="s">
-        <v>183</v>
-      </c>
-      <c r="U26" t="s">
-        <v>184</v>
-      </c>
-      <c r="V26" t="s">
-        <v>59</v>
-      </c>
-      <c r="W26" t="s">
-        <v>185</v>
-      </c>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27" t="s">
-        <v>182</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" t="s">
-        <v>34</v>
-      </c>
-      <c r="M27" t="s">
-        <v>35</v>
-      </c>
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
       <c r="N27"/>
-      <c r="O27">
-        <v>517</v>
-      </c>
-      <c r="P27" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>37</v>
-      </c>
-      <c r="R27">
-        <v>8</v>
-      </c>
-      <c r="S27" t="s">
-        <v>38</v>
-      </c>
-      <c r="T27" t="s">
-        <v>187</v>
-      </c>
-      <c r="U27" t="s">
-        <v>188</v>
-      </c>
-      <c r="V27" t="s">
-        <v>50</v>
-      </c>
-      <c r="W27" t="s">
-        <v>189</v>
-      </c>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>190</v>
-      </c>
-      <c r="B28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" t="s">
-        <v>98</v>
-      </c>
-      <c r="J28" t="s">
-        <v>192</v>
-      </c>
-      <c r="K28" t="s">
-        <v>33</v>
-      </c>
-      <c r="L28" t="s">
-        <v>34</v>
-      </c>
-      <c r="M28" t="s">
-        <v>35</v>
-      </c>
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
       <c r="N28"/>
-      <c r="O28">
-        <v>560</v>
-      </c>
-      <c r="P28" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>37</v>
-      </c>
-      <c r="R28">
-        <v>18</v>
-      </c>
-      <c r="S28" t="s">
-        <v>38</v>
-      </c>
-      <c r="T28" t="s">
-        <v>193</v>
-      </c>
-      <c r="U28" t="s">
-        <v>194</v>
-      </c>
-      <c r="V28" t="s">
-        <v>59</v>
-      </c>
-      <c r="W28" t="s">
-        <v>195</v>
-      </c>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B29" t="s">
-        <v>191</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" t="s">
-        <v>192</v>
-      </c>
-      <c r="K29" t="s">
-        <v>33</v>
-      </c>
-      <c r="L29" t="s">
-        <v>34</v>
-      </c>
-      <c r="M29" t="s">
-        <v>35</v>
-      </c>
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
       <c r="N29"/>
-      <c r="O29">
-        <v>560</v>
-      </c>
-      <c r="P29" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>37</v>
-      </c>
-      <c r="R29">
-        <v>9</v>
-      </c>
-      <c r="S29" t="s">
-        <v>38</v>
-      </c>
-      <c r="T29" t="s">
-        <v>197</v>
-      </c>
-      <c r="U29" t="s">
-        <v>198</v>
-      </c>
-      <c r="V29" t="s">
-        <v>59</v>
-      </c>
-      <c r="W29" t="s">
-        <v>199</v>
-      </c>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30"/>
@@ -4544,235 +4008,10 @@
       <c r="V82"/>
       <c r="W82"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A83"/>
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
-      <c r="J83"/>
-      <c r="K83"/>
-      <c r="L83"/>
-      <c r="M83"/>
-      <c r="N83"/>
-      <c r="O83"/>
-      <c r="P83"/>
-      <c r="Q83"/>
-      <c r="R83"/>
-      <c r="S83"/>
-      <c r="T83"/>
-      <c r="U83"/>
-      <c r="V83"/>
-      <c r="W83"/>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-      <c r="J84"/>
-      <c r="K84"/>
-      <c r="L84"/>
-      <c r="M84"/>
-      <c r="N84"/>
-      <c r="O84"/>
-      <c r="P84"/>
-      <c r="Q84"/>
-      <c r="R84"/>
-      <c r="S84"/>
-      <c r="T84"/>
-      <c r="U84"/>
-      <c r="V84"/>
-      <c r="W84"/>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85"/>
-      <c r="K85"/>
-      <c r="L85"/>
-      <c r="M85"/>
-      <c r="N85"/>
-      <c r="O85"/>
-      <c r="P85"/>
-      <c r="Q85"/>
-      <c r="R85"/>
-      <c r="S85"/>
-      <c r="T85"/>
-      <c r="U85"/>
-      <c r="V85"/>
-      <c r="W85"/>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="L86"/>
-      <c r="M86"/>
-      <c r="N86"/>
-      <c r="O86"/>
-      <c r="P86"/>
-      <c r="Q86"/>
-      <c r="R86"/>
-      <c r="S86"/>
-      <c r="T86"/>
-      <c r="U86"/>
-      <c r="V86"/>
-      <c r="W86"/>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A87"/>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
-      <c r="J87"/>
-      <c r="K87"/>
-      <c r="L87"/>
-      <c r="M87"/>
-      <c r="N87"/>
-      <c r="O87"/>
-      <c r="P87"/>
-      <c r="Q87"/>
-      <c r="R87"/>
-      <c r="S87"/>
-      <c r="T87"/>
-      <c r="U87"/>
-      <c r="V87"/>
-      <c r="W87"/>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A88"/>
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
-      <c r="J88"/>
-      <c r="K88"/>
-      <c r="L88"/>
-      <c r="M88"/>
-      <c r="N88"/>
-      <c r="O88"/>
-      <c r="P88"/>
-      <c r="Q88"/>
-      <c r="R88"/>
-      <c r="S88"/>
-      <c r="T88"/>
-      <c r="U88"/>
-      <c r="V88"/>
-      <c r="W88"/>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
-      <c r="J89"/>
-      <c r="K89"/>
-      <c r="L89"/>
-      <c r="M89"/>
-      <c r="N89"/>
-      <c r="O89"/>
-      <c r="P89"/>
-      <c r="Q89"/>
-      <c r="R89"/>
-      <c r="S89"/>
-      <c r="T89"/>
-      <c r="U89"/>
-      <c r="V89"/>
-      <c r="W89"/>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
-      <c r="J90"/>
-      <c r="K90"/>
-      <c r="L90"/>
-      <c r="M90"/>
-      <c r="N90"/>
-      <c r="O90"/>
-      <c r="P90"/>
-      <c r="Q90"/>
-      <c r="R90"/>
-      <c r="S90"/>
-      <c r="T90"/>
-      <c r="U90"/>
-      <c r="V90"/>
-      <c r="W90"/>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A91"/>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91"/>
-      <c r="J91"/>
-      <c r="K91"/>
-      <c r="L91"/>
-      <c r="M91"/>
-      <c r="N91"/>
-      <c r="O91"/>
-      <c r="P91"/>
-      <c r="Q91"/>
-      <c r="R91"/>
-      <c r="S91"/>
-      <c r="T91"/>
-      <c r="U91"/>
-      <c r="V91"/>
-      <c r="W91"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="V92:V1048576">
+  <conditionalFormatting sqref="V83:V1048576">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>_xludf.isFormula(V92)</formula>
+      <formula>_xludf.isFormula(V83)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/Excel/FLEXFIT/21.03/21.03.2022 FLEXFIT — загрузка.xlsx
+++ b/Excel/FLEXFIT/21.03/21.03.2022 FLEXFIT — загрузка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\FLEXFIT\21.03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C38CBB5-5A17-4827-9AB5-BE56B829C723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475E0599-9946-4678-A5C2-97B7C7192524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DE735F8-83A7-45D4-AC71-2649BBE1992D}"/>
   </bookViews>
@@ -350,9 +350,6 @@
     <t>Бейсболка с сеточкой</t>
   </si>
   <si>
-    <t>65% полиэстер - 35% хлопок</t>
-  </si>
-  <si>
     <t>94-015-34</t>
   </si>
   <si>
@@ -519,6 +516,9 @@
   </si>
   <si>
     <t>98% полиэстер - 2% спандекс</t>
+  </si>
+  <si>
+    <t>60% хлопок - 40% полиэстер</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1049,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1456,7 @@
         <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K6"/>
       <c r="L6" t="s">
@@ -1772,7 +1772,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11">
         <v>6606</v>
@@ -1799,7 +1799,7 @@
         <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="K11"/>
       <c r="L11" t="s">
@@ -1825,30 +1825,30 @@
         <v>38</v>
       </c>
       <c r="T11" t="s">
+        <v>95</v>
+      </c>
+      <c r="U11" t="s">
         <v>96</v>
-      </c>
-      <c r="U11" t="s">
-        <v>97</v>
       </c>
       <c r="V11" t="s">
         <v>88</v>
       </c>
       <c r="W11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
         <v>99</v>
-      </c>
-      <c r="B12" t="s">
-        <v>100</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
@@ -1860,10 +1860,10 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" t="s">
         <v>102</v>
-      </c>
-      <c r="I12" t="s">
-        <v>103</v>
       </c>
       <c r="J12" t="s">
         <v>32</v>
@@ -1894,30 +1894,30 @@
         <v>38</v>
       </c>
       <c r="T12" t="s">
+        <v>103</v>
+      </c>
+      <c r="U12" t="s">
         <v>104</v>
-      </c>
-      <c r="U12" t="s">
-        <v>105</v>
       </c>
       <c r="V12" t="s">
         <v>50</v>
       </c>
       <c r="W12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -1929,10 +1929,10 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" t="s">
         <v>108</v>
-      </c>
-      <c r="I13" t="s">
-        <v>109</v>
       </c>
       <c r="J13" t="s">
         <v>32</v>
@@ -1963,30 +1963,30 @@
         <v>38</v>
       </c>
       <c r="T13" t="s">
+        <v>109</v>
+      </c>
+      <c r="U13" t="s">
         <v>110</v>
-      </c>
-      <c r="U13" t="s">
-        <v>111</v>
       </c>
       <c r="V13" t="s">
         <v>59</v>
       </c>
       <c r="W13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
@@ -1998,10 +1998,10 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" t="s">
         <v>114</v>
-      </c>
-      <c r="I14" t="s">
-        <v>115</v>
       </c>
       <c r="J14" t="s">
         <v>32</v>
@@ -2032,30 +2032,30 @@
         <v>38</v>
       </c>
       <c r="T14" t="s">
+        <v>115</v>
+      </c>
+      <c r="U14" t="s">
         <v>116</v>
-      </c>
-      <c r="U14" t="s">
-        <v>117</v>
       </c>
       <c r="V14" t="s">
         <v>59</v>
       </c>
       <c r="W14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
         <v>27</v>
@@ -2067,10 +2067,10 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" t="s">
         <v>120</v>
-      </c>
-      <c r="I15" t="s">
-        <v>121</v>
       </c>
       <c r="J15" t="s">
         <v>32</v>
@@ -2101,30 +2101,30 @@
         <v>38</v>
       </c>
       <c r="T15" t="s">
+        <v>121</v>
+      </c>
+      <c r="U15" t="s">
         <v>122</v>
-      </c>
-      <c r="U15" t="s">
-        <v>123</v>
       </c>
       <c r="V15" t="s">
         <v>59</v>
       </c>
       <c r="W15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
@@ -2136,10 +2136,10 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" t="s">
         <v>126</v>
-      </c>
-      <c r="I16" t="s">
-        <v>127</v>
       </c>
       <c r="J16" t="s">
         <v>32</v>
@@ -2170,30 +2170,30 @@
         <v>38</v>
       </c>
       <c r="T16" t="s">
+        <v>127</v>
+      </c>
+      <c r="U16" t="s">
         <v>128</v>
-      </c>
-      <c r="U16" t="s">
-        <v>129</v>
       </c>
       <c r="V16" t="s">
         <v>59</v>
       </c>
       <c r="W16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
         <v>131</v>
-      </c>
-      <c r="B17" t="s">
-        <v>132</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
@@ -2239,30 +2239,30 @@
         <v>38</v>
       </c>
       <c r="T17" t="s">
+        <v>132</v>
+      </c>
+      <c r="U17" t="s">
         <v>133</v>
-      </c>
-      <c r="U17" t="s">
-        <v>134</v>
       </c>
       <c r="V17" t="s">
         <v>59</v>
       </c>
       <c r="W17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
         <v>27</v>
@@ -2308,30 +2308,30 @@
         <v>38</v>
       </c>
       <c r="T18" t="s">
+        <v>136</v>
+      </c>
+      <c r="U18" t="s">
         <v>137</v>
-      </c>
-      <c r="U18" t="s">
-        <v>138</v>
       </c>
       <c r="V18" t="s">
         <v>50</v>
       </c>
       <c r="W18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" t="s">
         <v>140</v>
-      </c>
-      <c r="B19" t="s">
-        <v>141</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
@@ -2349,7 +2349,7 @@
         <v>82</v>
       </c>
       <c r="J19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K19" t="s">
         <v>33</v>
@@ -2377,30 +2377,30 @@
         <v>38</v>
       </c>
       <c r="T19" t="s">
+        <v>142</v>
+      </c>
+      <c r="U19" t="s">
         <v>143</v>
-      </c>
-      <c r="U19" t="s">
-        <v>144</v>
       </c>
       <c r="V19" t="s">
         <v>59</v>
       </c>
       <c r="W19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
         <v>27</v>
@@ -2418,7 +2418,7 @@
         <v>56</v>
       </c>
       <c r="J20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K20" t="s">
         <v>33</v>
@@ -2446,16 +2446,16 @@
         <v>38</v>
       </c>
       <c r="T20" t="s">
+        <v>146</v>
+      </c>
+      <c r="U20" t="s">
         <v>147</v>
-      </c>
-      <c r="U20" t="s">
-        <v>148</v>
       </c>
       <c r="V20" t="s">
         <v>59</v>
       </c>
       <c r="W20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
